--- a/pasta.xlsx
+++ b/pasta.xlsx
@@ -27,12 +27,935 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="399">
+  <si>
+    <t>Torre 1</t>
+  </si>
   <si>
     <t>NOME</t>
   </si>
   <si>
-    <t>TELEFONE</t>
+    <t xml:space="preserve">TELEFONE </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Jaco Lavinsky</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 981342020</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Eduardo Gabriel Alcort A Rego</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 989262256</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Francinaldo De oliveira Barreto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 998057488</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Adriele Campos Martins</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 984617267</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Marvin Jesus Pereira</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 982704468</t>
+  </si>
+  <si>
+    <t>Lilian Nauter De Mira Bez</t>
+  </si>
+  <si>
+    <t>51 994589421</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Edilene Alves Da silva</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 995412334</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Tanara Conceicão Shumacher</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 997558433</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Daniella Rodrigues Machado</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 981645229</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Guilherme Bueno Larsen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 993366227</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Ana Manoela Dias Lopes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 985894336</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Paola Rosa Chagas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 993112502</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Deyvinson Wesley Macedo Da Font</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 984285582</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Carla Beatriz Do Prado Borges</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Rauane Alves Marques</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 981727754</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Maikon Diovani Padilha</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 992117256</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Jaime Lopes Santos Da Silva</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 985165871</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Oseias De Oliveira Pinho</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 994234449</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Robson Lencina Hidalgo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 991305141</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Gabriele Kendzierski Mendes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 993078929</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Neomar Jesus Alavera Sant Amari</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 982231616</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Natalia Antunes De Oliveira</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Sem telefone</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Paulo Roberto Dos Santos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 984521841</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Rafael Dos Santos Ramires</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 997415008</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Chester Correia Soares</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 996971984</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Paulo Marcos Roese</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 989539643</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Jonas Meireles Da Rocha</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 992939411</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Gian Ambos Assumpção</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 982944281</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Daniel Nunes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 986091167</t>
+  </si>
+  <si>
+    <t>Jaco Levinsky</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Elisangela Carvalho Ferreira Ramires</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 980599905</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Sarah Matta De oliveira</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Lucas De Almeida Narcisa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 993329604</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Jean Nunes Ferreira</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 984170599</t>
+  </si>
+  <si>
+    <t>Luiz Lavinski</t>
+  </si>
+  <si>
+    <t>51 982215300</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Milena Beatriz Silva De Paula</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 985961349</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Jessica Da Silva</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 989551372</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Douglas Da Silveira Dos Santos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 996220180</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>David Viana Da Silva</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Marvin Fabricio Machado Lima</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 984052340</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Claudia Elisa Moreira Dos Santos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 985210945</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Marcus Leandro Kauer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 997588581</t>
   </si>
   <si>
     <r>
@@ -55,16 +978,3398 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> 51 9337-3511</t>
-  </si>
-  <si>
-    <t>Lucas hahnn</t>
-  </si>
-  <si>
-    <t>Michel</t>
-  </si>
-  <si>
-    <t>55 51 9308-0559</t>
+    <t>51 983114612</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Marco Aurelio Oliveira Da Slva</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 981535986</t>
+  </si>
+  <si>
+    <t>Luana Dos Santos Nascimento</t>
+  </si>
+  <si>
+    <t>51 991295180</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>David William Souza Da Silva</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 992608212</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Joice Aline Souza Da Silva</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 995798844</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>João Alexandre Rosso Dos Santos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 991459030</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Viviane Rocha Alves</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 986552539</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Kewen Pereira Franco</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 993399396</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Pamela Sabrina Martins</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>51 34663660</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Roberta Martins De Abreu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 992988841</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Jennifer Dos Correia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 993927345</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Cristiano De Almeida Nunes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 995589397</t>
+  </si>
+  <si>
+    <t>Miguel Angel Diaz Salazar</t>
+  </si>
+  <si>
+    <t>51 991186524</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Dirlei Da Silva Azevedo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 991357913</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Fernanda Aparecida Prates</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 992125291</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Suelen Celina Barros</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 994496835</t>
+  </si>
+  <si>
+    <t>Tenda Negocios Imobiliários S.A</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Leticía Dos Santos Kolutulski</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 993855100</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Geise Estreito Souza</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 995818433</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>José Ricardo Guarche De Almeida</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 998795076</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Adriana Almeida Dos Santos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 981621054</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Willian Pagliani Padilha</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 992025430</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Alexandre Da Silva Oliveira</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 992918168</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Damerson Ribeiro Da Rosa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 74000887</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Halisson Roberto Botelho Dos Santos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 991674651</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Paula Daniela Santos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Liz Renata Pires Brum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 993891964</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Marielys Del Valle Aguirre Mejias</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 994554047</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Hellen Nathalia Gripa Nascimento</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 999533059</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Marlon Vargas Da Rosa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 982309398</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Fernandp Machado Moreira</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 996777339</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Alessandra Luis Vasconcellos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 986437236</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Claudia Soares Da Silva Gomes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Pauulo Renato Ketzer De Souza</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 992796175</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Taiciele Rodrigues De Jesus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 982976202</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Fabiannys Yosmel Rojas Molinas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 996671518</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Wagner Luis Dias</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 996833969</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Mariclei Ines Martinelli</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 985139872</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Fred Leon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 992456478</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Valdir Brasil Da Paixão</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 992675100</t>
+  </si>
+  <si>
+    <t>Eduarda Krug Rocha</t>
+  </si>
+  <si>
+    <t>51 989587735</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Jéssica Fagundes Da Silva</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 989312041</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Pamela De Souza Larsen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 991934989</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Rafael Braga Correa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 980329998</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Fernanda Barroso Da Silva</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 995956870</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Paula Kraus De Moraes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 991252196</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Elisa Correa Carvalho</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 996374583</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Patrick Elivelto Rodrigues Menez</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 991632970</t>
+  </si>
+  <si>
+    <t>Tais dos Santos Nunes</t>
+  </si>
+  <si>
+    <t>51 993018289</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Carlos Eduardo Camini Da Silva</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 989388262</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Wéferson De Freitas Pocaia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 980608779</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Tenda negócios Imobiliários S.A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Thiago Baldo Couto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 985769938</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Eduardo Matheus Fichtner Domino</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 9966774816</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Luciano Martins</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 984310769</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Raul Cardoso Barreto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 983442176</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Patrick Dos Santos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 984078673</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Disnei Silva Da Rosa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 995379775</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Rafael Saldanha Peres</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 995403929</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Poliana De Oliveira</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 996405955</t>
+  </si>
+  <si>
+    <t>Lucas Gabriel Crest Ani Lopez</t>
+  </si>
+  <si>
+    <t>51 981086112</t>
+  </si>
+  <si>
+    <t>Alessandra Rodrigues Do Prado</t>
+  </si>
+  <si>
+    <t>51 991068237</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Débora Regina Machado De Oliveira</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 33913901</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Deivison Pinto Carvalho</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 992522452</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Renata Barbosa Da Conceição</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 983101716</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Tiago Alves Da Silva</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 984523042</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Rhaineer Kevin Da Silva Machado</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 980633383</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Tassiane Rodrigues Da Silva</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 985182467</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Jessica Pitana Rodrigues</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 993279669</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Cleiton Andrei Goulart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Severo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 985658357</t>
+  </si>
+  <si>
+    <t>Jeferson Penna Soares</t>
+  </si>
+  <si>
+    <t>51 992029629</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Edgar Modesto De Vargas Neto Junior</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 981759600</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Pamela Michele Pereira Alves</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 991985162</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Patricia Toffanelo Viero Gam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 989292329</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Guiomar Da Silva</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 998575179</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Amarildo De Andrades Escouto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 985433195</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Luis Carlos Pimentel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 989383379</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Lucas Gabriel Mendes Peixoto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 991484879</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Nicolas De Freitas Rodrigues</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 992491616</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Luciano Da Rocha Luz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 997788335</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Andressa Katiele De Mello</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 985756344</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Willian Silva De Oliveira</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 982993134</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Adriana Ferreira Neta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 991560947</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Leonardo De Oliveira Daros</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 992065433</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Marcia Teresinha De Jesus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 993098180</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Cristopher Da Silva Nunes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 991918926</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Carlos Henrique Maria Soares</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 984449761</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Janaina Terezinha Domingues Soares</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 995240716</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Carlos Alberto Leite Da Silva</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 985886422</t>
+  </si>
+  <si>
+    <t>Luan Mazui Alves</t>
+  </si>
+  <si>
+    <t>51 9990999393</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Raimundo José Da Silva</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 992971112</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Tatielen Rocha De Souza</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 984347480</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Paulo André Jobim De Jobim</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 991728333</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Rostine Cristina Joaquim Da Silva</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 981819355</t>
+  </si>
+  <si>
+    <t>Amanda Dias Pereira</t>
+  </si>
+  <si>
+    <t>51 984563836</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Douglas Mota Machado</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 994862502</t>
+  </si>
+  <si>
+    <t>Jerferson William Rodrigues Macha</t>
+  </si>
+  <si>
+    <t>51 993481915</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Guilherme Philip Ridrigues Da Silva</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 999426190</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bianca Vargas Correa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 980108506</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Tamires Da Silva Oliveira</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 9810881149</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>GAbrielle Kreff De Assis Nickele</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 992607268</t>
+  </si>
+  <si>
+    <t>Tiago Henrique Francilio Duarte</t>
+  </si>
+  <si>
+    <t>51 993999747</t>
+  </si>
+  <si>
+    <t>Jessica Simone De Lima</t>
+  </si>
+  <si>
+    <t>51 986391319</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Yovanny Jose Coa Jaramello</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 993901367</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Rodrigo De Oliveira Riberiro</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 998333694</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Lana Helen Maria Da Silva</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 984741590</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Andressa Machado MArques</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 984701154</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Yusmary Beariz Timaure Hernandes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 992832245</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>William Teixeira Henriques</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 993430867</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Ricardo De Souza Marisco</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 984585215</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Amanda Santos De Souza</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 991392527</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Michael Douglas Deula Nogueira</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 989256439</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Maria Nicole Rosa Da Silva</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 998436072</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Darlon Malmann Pedrozo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 993813098</t>
+  </si>
+  <si>
+    <t>Matheus Bonifacio De Souza Rosa</t>
+  </si>
+  <si>
+    <t>51 981620311</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Lilian Conceição Racki</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 995006698</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Angela De Mello Paz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 984684449</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Yuri De Paula Marinho</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 995753301</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Solange Rodrigues Barbosa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 986598824</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Gabriel Edilson Correia Soares</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 984906781</t>
+  </si>
+  <si>
+    <t>Julia Aparecida Dos Reis</t>
+  </si>
+  <si>
+    <t>51 992989449</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Gabriel Lemos Riboldi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 986593120</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Leonardo Rocha Ferreira</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 991528907</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>natanael De Paula Duarte</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 991383750</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Daniel Moreira Boeno</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 993728869</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Matheus Abreu De Lima</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 985490240</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Gregório Alexander Mont Ana</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 993334781</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Natalia de Avila Henrique</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 991853033</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Lucas Ramos Fontella Lopes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 980365146</t>
+  </si>
+  <si>
+    <t>Diego Soares Barbosa</t>
+  </si>
+  <si>
+    <t>51 9901866992</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Pedro Henrique Bisparo Pfeuffer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 992299398</t>
+  </si>
+  <si>
+    <t>Josielen Machado Wergutz</t>
+  </si>
+  <si>
+    <t>51 992667178</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Andressa Rodrigues Rosa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 997507606</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Christian Godois Severo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Kelvin Alexandre Da Costa Severo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 985019490</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Amanda Caroline Da Silva Teixeira</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 991041392</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Wesley Dalbon Farias</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Joice Natieli Silva Rodrigues</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 999095100</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Camila Monteiro Moraes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 983212386</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Alessandra Regina Souza De Castro</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 989506020</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Renata Da Silva Farias</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Janes Henrique Martins</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 999700221</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Mariana Rossato Dos Santos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 997960914</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Jose Angel Jimenez Gonzales</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 980294204</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Juliana De Oliveira Menegon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 997308909</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Vinicius Griesang Mazuhi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 999977249</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Jucele Patricia Dias Teixiera</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 984174882</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Debora Regina Motta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 982256478</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Lucas Dal Osto Da Silva</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 985780699</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Marcello Bittencourt Gonçalves</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 981005300</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Luiz Lavinsk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Vanessa Adriele Dos Santos Cerque</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 994383534</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Cleverson Lanheski</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 984890403</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Adrielle Barbosa Freire</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 991088486</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Franklin Jhojan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 982557392</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Anderson Aires Silva</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 991242983</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Fabiana Evaristo Dos Santos Maru</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 993713960</t>
+  </si>
+  <si>
+    <t>Luciana Zarzicki</t>
+  </si>
+  <si>
+    <t>51 982744399</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Rosimeri Da Silva Weber</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 991387184</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Jenifer Daiana De Camargo Correa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 996532907</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>acelina De Oliveira Cunha</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>51 999026014</t>
+  </si>
+  <si>
+    <t>Daniela Romero Preto</t>
+  </si>
+  <si>
+    <t>51 993700774</t>
   </si>
 </sst>
 </file>
@@ -77,7 +4382,7 @@
     <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -89,10 +4394,22 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -242,7 +4559,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -252,6 +4569,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFE699"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -568,58 +4897,52 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -631,88 +4954,124 @@
     <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1247,67 +5606,2511 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="40.4285714285714" customWidth="1"/>
-    <col min="2" max="2" width="24.2857142857143" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="40.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="24.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:2">
+    <row r="1" ht="15.75" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" ht="15.75" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" spans="1:3">
+      <c r="A2" s="4">
+        <v>101</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>51993943460</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" spans="1:2">
-      <c r="A4" s="3" t="s">
+    </row>
+    <row r="3" ht="15.75" spans="1:3">
+      <c r="A3" s="4">
+        <v>102</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" spans="1:3">
+      <c r="A4" s="4">
+        <v>103</v>
+      </c>
       <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" spans="1:2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="8" ht="15.75" spans="1:2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-    </row>
-    <row r="9" customFormat="1"/>
-    <row r="10" ht="15.75" spans="1:2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-    </row>
-    <row r="11" customFormat="1"/>
-    <row r="12" ht="15.75" spans="1:2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" spans="1:3">
+      <c r="A5" s="6">
+        <v>104</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" spans="1:3">
+      <c r="A6" s="4">
+        <v>201</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" spans="1:3">
+      <c r="A7" s="4">
+        <v>202</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" spans="1:3">
+      <c r="A8" s="4">
+        <v>203</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" spans="1:3">
+      <c r="A9" s="4">
+        <v>204</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" spans="1:3">
+      <c r="A10" s="4">
+        <v>301</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" spans="1:3">
+      <c r="A11" s="4">
+        <v>302</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" spans="1:3">
+      <c r="A12" s="4">
+        <v>303</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" spans="1:3">
+      <c r="A13" s="4">
+        <v>304</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" spans="1:3">
+      <c r="A14" s="4">
+        <v>401</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" spans="1:3">
+      <c r="A15" s="4">
+        <v>402</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" spans="1:3">
+      <c r="A16" s="4">
+        <v>403</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="5">
+        <v>51995691777</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" spans="1:3">
+      <c r="A17" s="4">
+        <v>404</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" spans="1:3">
+      <c r="A18" s="4">
+        <v>501</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" spans="1:3">
+      <c r="A19" s="4">
+        <v>502</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" spans="1:3">
+      <c r="A20" s="4">
+        <v>503</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" spans="1:3">
+      <c r="A21" s="4">
+        <v>504</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" spans="1:3">
+      <c r="A22" s="4">
+        <v>101</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" spans="1:3">
+      <c r="A23" s="4">
+        <v>102</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" spans="1:3">
+      <c r="A24" s="8">
+        <v>103</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" spans="1:3">
+      <c r="A25" s="4">
+        <v>104</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" spans="1:3">
+      <c r="A26" s="4">
+        <v>201</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" spans="1:3">
+      <c r="A27" s="4">
+        <v>202</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" spans="1:3">
+      <c r="A28" s="4">
+        <v>203</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" spans="1:3">
+      <c r="A29" s="4">
+        <v>204</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" spans="1:3">
+      <c r="A30" s="4">
+        <v>301</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" spans="1:3">
+      <c r="A31" s="4">
+        <v>302</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" spans="1:3">
+      <c r="A32" s="4">
+        <v>303</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" spans="1:3">
+      <c r="A33" s="4">
+        <v>304</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" spans="1:3">
+      <c r="A34" s="4">
+        <v>401</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" spans="1:3">
+      <c r="A35" s="4">
+        <v>402</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" spans="1:3">
+      <c r="A36" s="4">
+        <v>403</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" spans="1:3">
+      <c r="A37" s="4">
+        <v>404</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" spans="1:3">
+      <c r="A38" s="4">
+        <v>501</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" spans="1:3">
+      <c r="A39" s="4">
+        <v>502</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" ht="15.75" spans="1:3">
+      <c r="A40" s="4">
+        <v>503</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" spans="1:3">
+      <c r="A41" s="4">
+        <v>504</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="5">
+        <v>995492537</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" spans="1:3">
+      <c r="A42" s="4">
+        <v>101</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" spans="1:3">
+      <c r="A43" s="4">
+        <v>102</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" ht="15.75" spans="1:3">
+      <c r="A44" s="4">
+        <v>103</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" spans="1:3">
+      <c r="A45" s="4">
+        <v>104</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" ht="15.75" spans="1:3">
+      <c r="A46" s="4">
+        <v>201</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" spans="1:3">
+      <c r="A47" s="4">
+        <v>202</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" spans="1:3">
+      <c r="A48" s="4">
+        <v>203</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" spans="1:3">
+      <c r="A49" s="4">
+        <v>204</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" spans="1:3">
+      <c r="A50" s="4">
+        <v>301</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" spans="1:3">
+      <c r="A51" s="4">
+        <v>302</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" spans="1:3">
+      <c r="A52" s="4">
+        <v>303</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" spans="1:3">
+      <c r="A53" s="4">
+        <v>304</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" spans="1:3">
+      <c r="A54" s="4">
+        <v>401</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" spans="1:3">
+      <c r="A55" s="4">
+        <v>402</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" spans="1:3">
+      <c r="A56" s="4">
+        <v>403</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" spans="1:3">
+      <c r="A57" s="4">
+        <v>404</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" spans="1:3">
+      <c r="A58" s="4">
+        <v>501</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" spans="1:3">
+      <c r="A59" s="4">
+        <v>502</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" spans="1:3">
+      <c r="A60" s="4">
+        <v>503</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="61" ht="15.75" spans="1:3">
+      <c r="A61" s="4">
+        <v>504</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" spans="1:3">
+      <c r="A62" s="4">
+        <v>101</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C62" s="5"/>
+    </row>
+    <row r="63" ht="15.75" spans="1:3">
+      <c r="A63" s="4">
+        <v>102</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" spans="1:3">
+      <c r="A64" s="4">
+        <v>103</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" spans="1:3">
+      <c r="A65" s="4">
+        <v>104</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" spans="1:3">
+      <c r="A66" s="4">
+        <v>201</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" spans="1:3">
+      <c r="A67" s="4">
+        <v>202</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="68" ht="15.75" spans="1:3">
+      <c r="A68" s="4">
+        <v>203</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" ht="15.75" spans="1:3">
+      <c r="A69" s="4">
+        <v>204</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="70" ht="15.75" spans="1:3">
+      <c r="A70" s="4">
+        <v>301</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71" ht="15.75" spans="1:3">
+      <c r="A71" s="4">
+        <v>302</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="72" ht="15.75" spans="1:3">
+      <c r="A72" s="4">
+        <v>303</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="73" ht="15.75" spans="1:3">
+      <c r="A73" s="4">
+        <v>304</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="74" ht="15.75" spans="1:3">
+      <c r="A74" s="4">
+        <v>401</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="75" ht="15.75" spans="1:3">
+      <c r="A75" s="4">
+        <v>402</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="76" ht="15.75" spans="1:3">
+      <c r="A76" s="4">
+        <v>403</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="77" ht="15.75" spans="1:3">
+      <c r="A77" s="4">
+        <v>404</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="78" ht="15.75" spans="1:3">
+      <c r="A78" s="4">
+        <v>501</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="79" ht="15.75" spans="1:3">
+      <c r="A79" s="4">
+        <v>503</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="80" ht="15.75" spans="1:3">
+      <c r="A80" s="8">
+        <v>504</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="81" ht="15.75" spans="1:3">
+      <c r="A81" s="4">
+        <v>101</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="82" ht="15.75" spans="1:3">
+      <c r="A82" s="4">
+        <v>102</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="83" ht="15.75" spans="1:3">
+      <c r="A83" s="4">
+        <v>103</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="84" ht="15.75" spans="1:3">
+      <c r="A84" s="4">
+        <v>104</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="85" ht="15.75" spans="1:3">
+      <c r="A85" s="4">
+        <v>201</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="86" ht="15.75" spans="1:3">
+      <c r="A86" s="4">
+        <v>202</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="87" ht="15.75" spans="1:3">
+      <c r="A87" s="4">
+        <v>203</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="88" ht="15.75" spans="1:3">
+      <c r="A88" s="4">
+        <v>204</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="89" ht="15.75" spans="1:3">
+      <c r="A89" s="4">
+        <v>301</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="90" ht="15.75" spans="1:3">
+      <c r="A90" s="4">
+        <v>302</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="91" ht="15.75" spans="1:3">
+      <c r="A91" s="4">
+        <v>303</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="92" ht="15.75" spans="1:3">
+      <c r="A92" s="4">
+        <v>304</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" ht="15.75" spans="1:3">
+      <c r="A93" s="4">
+        <v>401</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" ht="15.75" spans="1:3">
+      <c r="A94" s="4">
+        <v>402</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="95" ht="15.75" spans="1:3">
+      <c r="A95" s="4">
+        <v>403</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="96" ht="15.75" spans="1:3">
+      <c r="A96" s="4">
+        <v>404</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="97" ht="15.75" spans="1:3">
+      <c r="A97" s="4">
+        <v>501</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="98" ht="15.75" spans="1:3">
+      <c r="A98" s="4">
+        <v>502</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" ht="15.75" spans="1:3">
+      <c r="A99" s="4">
+        <v>503</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="100" ht="15.75" spans="1:3">
+      <c r="A100" s="4">
+        <v>504</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="101" ht="15.75" spans="1:3">
+      <c r="A101" s="4">
+        <v>101</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="102" ht="15.75" spans="1:3">
+      <c r="A102" s="4">
+        <v>102</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C102" s="5"/>
+    </row>
+    <row r="103" ht="15.75" spans="1:3">
+      <c r="A103" s="4">
+        <v>103</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" ht="15.75" spans="1:3">
+      <c r="A104" s="4">
+        <v>104</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="105" ht="15.75" spans="1:3">
+      <c r="A105" s="4">
+        <v>201</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="106" ht="15.75" spans="1:3">
+      <c r="A106" s="4">
+        <v>202</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="107" ht="15.75" spans="1:3">
+      <c r="A107" s="4">
+        <v>203</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="108" ht="15.75" spans="1:3">
+      <c r="A108" s="4">
+        <v>204</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" ht="15.75" spans="1:3">
+      <c r="A109" s="10">
+        <v>301</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" ht="15.75" spans="1:3">
+      <c r="A110" s="4">
+        <v>302</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="111" ht="15.75" spans="1:3">
+      <c r="A111" s="4">
+        <v>303</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="112" ht="15.75" spans="1:3">
+      <c r="A112" s="4">
+        <v>304</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="113" ht="15.75" spans="1:3">
+      <c r="A113" s="4">
+        <v>401</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="114" ht="15.75" spans="1:3">
+      <c r="A114" s="4">
+        <v>402</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="115" ht="15.75" spans="1:3">
+      <c r="A115" s="4">
+        <v>403</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="116" ht="15.75" spans="1:3">
+      <c r="A116" s="4">
+        <v>404</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="117" ht="15.75" spans="1:3">
+      <c r="A117" s="4">
+        <v>501</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="118" ht="15.75" spans="1:3">
+      <c r="A118" s="4">
+        <v>502</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="119" ht="15.75" spans="1:3">
+      <c r="A119" s="4">
+        <v>503</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="120" ht="15.75" spans="1:3">
+      <c r="A120" s="4">
+        <v>504</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="121" ht="15.75" spans="1:3">
+      <c r="A121" s="4">
+        <v>101</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="122" ht="15.75" spans="1:3">
+      <c r="A122" s="4">
+        <v>102</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="123" ht="15.75" spans="1:3">
+      <c r="A123" s="4">
+        <v>103</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="124" ht="15.75" spans="1:3">
+      <c r="A124" s="4">
+        <v>104</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="125" ht="15.75" spans="1:3">
+      <c r="A125" s="4">
+        <v>201</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="126" ht="15.75" spans="1:3">
+      <c r="A126" s="4">
+        <v>202</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="127" ht="15.75" spans="1:3">
+      <c r="A127" s="4">
+        <v>203</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="128" ht="15.75" spans="1:3">
+      <c r="A128" s="4">
+        <v>204</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="129" ht="15.75" spans="1:3">
+      <c r="A129" s="4">
+        <v>301</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="130" ht="15.75" spans="1:3">
+      <c r="A130" s="4">
+        <v>302</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="131" ht="15.75" spans="1:3">
+      <c r="A131" s="4">
+        <v>303</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="132" ht="15.75" spans="1:3">
+      <c r="A132" s="4">
+        <v>304</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="133" ht="15.75" spans="1:3">
+      <c r="A133" s="4">
+        <v>401</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="134" ht="15.75" spans="1:3">
+      <c r="A134" s="4">
+        <v>402</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" ht="15.75" spans="1:3">
+      <c r="A135" s="4">
+        <v>403</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="136" ht="15.75" spans="1:3">
+      <c r="A136" s="4">
+        <v>404</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="137" ht="15.75" spans="1:3">
+      <c r="A137" s="4">
+        <v>501</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="138" ht="15.75" spans="1:3">
+      <c r="A138" s="4">
+        <v>502</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="139" ht="15.75" spans="1:3">
+      <c r="A139" s="4">
+        <v>503</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" ht="15.75" spans="1:3">
+      <c r="A140" s="4">
+        <v>504</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C140" s="12" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="141" ht="15.75" spans="1:3">
+      <c r="A141" s="4">
+        <v>101</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="142" ht="15.75" spans="1:3">
+      <c r="A142" s="4">
+        <v>102</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="143" ht="15.75" spans="1:3">
+      <c r="A143" s="4">
+        <v>103</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="144" ht="15.75" spans="1:3">
+      <c r="A144" s="4">
+        <v>104</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="145" ht="15.75" spans="1:3">
+      <c r="A145" s="4">
+        <v>201</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" ht="15.75" spans="1:3">
+      <c r="A146" s="4">
+        <v>202</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="147" ht="15.75" spans="1:3">
+      <c r="A147" s="4">
+        <v>203</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="148" ht="15.75" spans="1:3">
+      <c r="A148" s="4">
+        <v>204</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="149" ht="15.75" spans="1:3">
+      <c r="A149" s="4">
+        <v>301</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="150" ht="15.75" spans="1:3">
+      <c r="A150" s="4">
+        <v>302</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" ht="15.75" spans="1:3">
+      <c r="A151" s="4">
+        <v>303</v>
+      </c>
+      <c r="B151" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="152" ht="15.75" spans="1:3">
+      <c r="A152" s="4">
+        <v>304</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="153" ht="15.75" spans="1:3">
+      <c r="A153" s="4">
+        <v>401</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="154" ht="15.75" spans="1:3">
+      <c r="A154" s="4">
+        <v>402</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="155" ht="15.75" spans="1:3">
+      <c r="A155" s="4">
+        <v>403</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="156" ht="15.75" spans="1:3">
+      <c r="A156" s="4">
+        <v>404</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="157" ht="15.75" spans="1:3">
+      <c r="A157" s="4">
+        <v>501</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="158" ht="15.75" spans="1:3">
+      <c r="A158" s="4">
+        <v>502</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="159" ht="15.75" spans="1:3">
+      <c r="A159" s="4">
+        <v>503</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="160" ht="15.75" spans="1:3">
+      <c r="A160" s="4">
+        <v>504</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C160" s="14" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="161" ht="15.75" spans="1:3">
+      <c r="A161" s="4">
+        <v>101</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="162" ht="15.75" spans="1:3">
+      <c r="A162" s="4">
+        <v>102</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="163" ht="15.75" spans="1:3">
+      <c r="A163" s="4">
+        <v>103</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="164" ht="15.75" spans="1:3">
+      <c r="A164" s="4">
+        <v>104</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="165" ht="15.75" spans="1:3">
+      <c r="A165" s="4">
+        <v>201</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="166" ht="15.75" spans="1:3">
+      <c r="A166" s="4">
+        <v>202</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="167" ht="15.75" spans="1:3">
+      <c r="A167" s="4">
+        <v>203</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="168" ht="15.75" spans="1:3">
+      <c r="A168" s="4">
+        <v>204</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="169" ht="15.75" spans="1:3">
+      <c r="A169" s="4">
+        <v>301</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="170" ht="15.75" spans="1:3">
+      <c r="A170" s="4">
+        <v>302</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="171" ht="15.75" spans="1:3">
+      <c r="A171" s="4">
+        <v>303</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="172" ht="15.75" spans="1:3">
+      <c r="A172" s="4">
+        <v>304</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="173" ht="15.75" spans="1:3">
+      <c r="A173" s="4">
+        <v>401</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="174" ht="15.75" spans="1:3">
+      <c r="A174" s="4">
+        <v>402</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="175" ht="15.75" spans="1:3">
+      <c r="A175" s="4">
+        <v>403</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="176" ht="15.75" spans="1:3">
+      <c r="A176" s="4">
+        <v>404</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" ht="15.75" spans="1:3">
+      <c r="A177" s="4">
+        <v>501</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" ht="15.75" spans="1:3">
+      <c r="A178" s="4">
+        <v>502</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="179" ht="15.75" spans="1:3">
+      <c r="A179" s="4">
+        <v>503</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="180" ht="15.75" spans="1:3">
+      <c r="A180" s="4">
+        <v>504</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="181" ht="15.75" spans="1:3">
+      <c r="A181" s="4">
+        <v>101</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="182" ht="15.75" spans="1:3">
+      <c r="A182" s="4">
+        <v>102</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" ht="15.75" spans="1:3">
+      <c r="A183" s="4">
+        <v>103</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="184" ht="15.75" spans="1:3">
+      <c r="A184" s="4">
+        <v>104</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="185" ht="15.75" spans="1:3">
+      <c r="A185" s="4">
+        <v>201</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="186" ht="15.75" spans="1:3">
+      <c r="A186" s="4">
+        <v>202</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="187" ht="15.75" spans="1:3">
+      <c r="A187" s="4">
+        <v>203</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" ht="15.75" spans="1:3">
+      <c r="A188" s="4">
+        <v>204</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="189" ht="15.75" spans="1:3">
+      <c r="A189" s="4">
+        <v>301</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="190" ht="15.75" spans="1:3">
+      <c r="A190" s="4">
+        <v>302</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="191" ht="15.75" spans="1:3">
+      <c r="A191" s="4">
+        <v>303</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="192" ht="15.75" spans="1:3">
+      <c r="A192" s="4">
+        <v>304</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="193" ht="15.75" spans="1:3">
+      <c r="A193" s="4">
+        <v>401</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="194" ht="15.75" spans="1:3">
+      <c r="A194" s="4">
+        <v>402</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="195" ht="15.75" spans="1:3">
+      <c r="A195" s="4">
+        <v>403</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C195" s="5">
+        <v>51985639296</v>
+      </c>
+    </row>
+    <row r="196" ht="15.75" spans="1:3">
+      <c r="A196" s="4">
+        <v>404</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="197" ht="15.75" spans="1:3">
+      <c r="A197" s="4">
+        <v>501</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="198" ht="15.75" spans="1:3">
+      <c r="A198" s="8">
+        <v>502</v>
+      </c>
+      <c r="B198" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="C198" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="199" ht="15.75" spans="1:3">
+      <c r="A199" s="4">
+        <v>503</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="200" ht="15.75" spans="1:3">
+      <c r="A200" s="4">
+        <v>504</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="201" ht="15.75" spans="1:3">
+      <c r="A201" s="4">
+        <v>101</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="202" ht="15.75" spans="1:3">
+      <c r="A202" s="8">
+        <v>102</v>
+      </c>
+      <c r="B202" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C202" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="203" ht="15.75" spans="1:3">
+      <c r="A203" s="4">
+        <v>103</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="204" ht="15.75" spans="1:3">
+      <c r="A204" s="4">
+        <v>104</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="205" ht="15.75" spans="1:3">
+      <c r="A205" s="4">
+        <v>201</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="206" ht="15.75" spans="1:3">
+      <c r="A206" s="4">
+        <v>202</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="207" ht="15.75" spans="1:3">
+      <c r="A207" s="4">
+        <v>203</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="208" ht="15.75" spans="1:3">
+      <c r="A208" s="4">
+        <v>204</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="209" ht="15.75" spans="1:3">
+      <c r="A209" s="4">
+        <v>301</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="210" ht="15.75" spans="1:3">
+      <c r="A210" s="4">
+        <v>302</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="211" ht="15.75" spans="1:3">
+      <c r="A211" s="4">
+        <v>303</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="212" ht="15.75" spans="1:3">
+      <c r="A212" s="4">
+        <v>304</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213" ht="15.75" spans="1:3">
+      <c r="A213" s="4">
+        <v>401</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="214" ht="15.75" spans="1:3">
+      <c r="A214" s="4">
+        <v>402</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="215" ht="15.75" spans="1:3">
+      <c r="A215" s="4">
+        <v>403</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216" ht="15.75" spans="1:3">
+      <c r="A216" s="4">
+        <v>404</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="217" ht="15.75" spans="1:3">
+      <c r="A217" s="4">
+        <v>501</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="218" ht="15.75" spans="1:3">
+      <c r="A218" s="4">
+        <v>502</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="219" ht="15.75" spans="1:3">
+      <c r="A219" s="4">
+        <v>503</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="C219" s="5" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="220" ht="15.75" spans="1:3">
+      <c r="A220" s="4">
+        <v>504</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C220" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" ht="15.75" spans="1:3">
+      <c r="A221" s="4">
+        <v>101</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="C221" s="5" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="222" ht="15.75" spans="1:3">
+      <c r="A222" s="4">
+        <v>102</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="223" ht="15.75" spans="1:3">
+      <c r="A223" s="4">
+        <v>103</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C223" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224" ht="15.75" spans="1:3">
+      <c r="A224" s="4">
+        <v>104</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="225" ht="15.75" spans="1:3">
+      <c r="A225" s="4">
+        <v>201</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="C225" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="226" ht="15.75" spans="1:3">
+      <c r="A226" s="4">
+        <v>202</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C226" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227" ht="15.75" spans="1:3">
+      <c r="A227" s="4">
+        <v>203</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>398</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
